--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +559,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +606,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +877,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +924,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +970,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1200,10 +1224,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1247,28 +1271,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1293,28 +1317,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1460,10 +1484,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1507,28 +1531,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1553,28 +1577,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1749,10 +1773,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1796,28 +1820,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1842,28 +1866,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2096,10 +2120,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2143,28 +2167,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2189,28 +2213,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2356,10 +2380,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2403,28 +2427,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2449,28 +2473,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2616,10 +2640,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2663,28 +2687,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2709,28 +2733,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2818,10 +2842,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2865,28 +2889,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2911,28 +2935,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3049,10 +3073,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3096,28 +3120,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3142,28 +3166,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3280,10 +3304,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3327,28 +3351,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3373,28 +3397,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3540,10 +3564,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3587,28 +3611,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3633,28 +3657,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3771,10 +3795,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3818,28 +3842,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3864,28 +3888,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4089,10 +4113,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4136,28 +4160,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4182,28 +4206,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4349,10 +4373,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4396,28 +4420,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4442,28 +4466,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4609,10 +4633,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4656,28 +4680,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4702,28 +4726,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4898,10 +4922,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4945,28 +4969,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4991,28 +5015,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5216,10 +5240,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5263,28 +5287,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5309,28 +5333,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5534,10 +5558,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5581,28 +5605,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5627,28 +5651,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5765,10 +5789,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5812,28 +5836,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5858,28 +5882,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6025,10 +6049,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6072,28 +6096,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6118,28 +6142,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6227,10 +6251,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
